--- a/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
+++ b/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.242421190820533</v>
+        <v>0.757578809179467</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.871731194034147</v>
+        <v>0.128268805965853</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0482300105263663</v>
+        <v>0.951769989473634</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.462919742310039</v>
+        <v>0.537080257689961</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.59675202974633</v>
+        <v>0.06253469382721601</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.036231884057971</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.550724637681159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.312</v>
+        <v>1.35</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0131504102316602</v>
+        <v>-0.0262580877066859</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.081239456666161</v>
+        <v>-0.0568250109159299</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0647152109991635</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.21487507425007</v>
+        <v>-1.94504353382858</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3084,7 +3084,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3094,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3109,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.886379209252019</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.78</v>
+        <v>10.29</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.575797653205214</v>
+        <v>0.0249658236500341</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.15357635898746</v>
+        <v>-0.0066823718540069</v>
       </c>
       <c r="M30" t="n">
-        <v>3.72150272535638</v>
+        <v>0.0541067702454022</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.607509657317171</v>
+        <v>0.242622192906065</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3142,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3171,7 +3175,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3181,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>0.78319893186518</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.51</v>
+        <v>0.011</v>
       </c>
       <c r="K31" t="n">
-        <v>0.25507720238567</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.149075471124501</v>
+        <v>-0.0001823149779449</v>
       </c>
       <c r="M31" t="n">
-        <v>1.20832403996164</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5.65581380012573</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3258,7 +3266,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3268,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3283,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.185546684761349</v>
+        <v>0.9982495055025</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.701863354037267</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3405</v>
+        <v>626</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0062244376278118</v>
+        <v>-21.5491554316476</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0228354152856572</v>
+        <v>-36.9877276978174</v>
       </c>
       <c r="M32" t="n">
-        <v>0.008340702099997901</v>
+        <v>-9.629378308087491</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.82802867189776</v>
+        <v>-3.44235709770729</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3345,7 +3357,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3355,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.088983712984032</v>
+        <v>0.75964569841478</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.230263157894737</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>95.5</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.819405496354459</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.92401218058914</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.156932458089537</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.858016226549172</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3403,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3432,7 +3448,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3442,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.429013828493761</v>
+        <v>0.0830118012005689</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.151315789473684</v>
       </c>
       <c r="H34" t="n">
+        <v>0.776315789473684</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>4.5905</v>
+        <v>0.196</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0578594175285793</v>
+        <v>0.0004167617526243</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.261299253102405</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0918651483169166</v>
+        <v>0.001696822311118</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.26041645852476</v>
+        <v>0.212633547257333</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3490,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3519,7 +3539,984 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3549873010428</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.490322580645161</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.001836167594496</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.008750620654469</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0050720954469118</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0245149211548205</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.459820218624906</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.031055900621118</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.807453416149068</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0005361022366787</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0016206371680468</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0023418440617065</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.266717530685963</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.973383341239075</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.583850931677019</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0039932645142397</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.00759242172822</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0005146918702245001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.831930107133271</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.038688775268406</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.322981366459627</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0003283146730593</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0006481998851849</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.965631391351165</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.486403425761931</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.930817610062893</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0013683191808191</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0739277491320024</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0420719609338847</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0354486834409107</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0131504102316602</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.081239456666161</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0647152109991635</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.21487507425007</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>94.78</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.575797653205214</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-6.15357635898746</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.72150272535638</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.607509657317171</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.25507720238567</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.149075471124501</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.20832403996164</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.65581380012573</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3405</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0062244376278118</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0228354152856572</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.008340702099997901</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.82802867189776</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.819405496354459</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.92401218058914</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.156932458089537</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.858016226549172</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.5905</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0578594175285793</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.261299253102405</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0918651483169166</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.26041645852476</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
+++ b/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.768910146482538</v>
+        <v>0.9116437807729419</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.25</v>
+        <v>10.75</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.787388901152523</v>
+        <v>-1.22332535885167</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.89880952380952</v>
+        <v>-3.06656339624488</v>
       </c>
       <c r="M2" t="n">
-        <v>1.53648919629472</v>
+        <v>0.267976857782746</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.52553614843876</v>
+        <v>-11.3797707800156</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9250982827963939</v>
+        <v>0.966240057036501</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0924742161488766</v>
+        <v>0.111104267869535</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0077309299170177</v>
+        <v>0.0070311819581586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.171120691484174</v>
+        <v>0.176340056506813</v>
       </c>
       <c r="N3" t="n">
-        <v>8.48387304118134</v>
+        <v>8.81779903726469</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.757578809179467</v>
+        <v>0.407940822856469</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.63</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0521596387103465</v>
+        <v>-0.0116641221040107</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0214999630112291</v>
+        <v>-0.0504917629132768</v>
       </c>
       <c r="M4" t="n">
-        <v>0.136177173695091</v>
+        <v>0.08225636626673211</v>
       </c>
       <c r="N4" t="n">
-        <v>0.490683336880023</v>
+        <v>-0.109728335879687</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.234076578785203</v>
+        <v>0.0432128945097032</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.267857142857143</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0005478102979963</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0002818924224522</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008590882444905</v>
+        <v>0.0010825815869966</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.98009361814818</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.157937239915245</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.696428571428571</v>
+        <v>0.767857142857143</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K6" t="n">
-        <v>21.0721153846154</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.86215845334206</v>
+        <v>-25.5863535218387</v>
       </c>
       <c r="M6" t="n">
-        <v>81.4778666249024</v>
+        <v>30.4761087112315</v>
       </c>
       <c r="N6" t="n">
-        <v>4.78911713286713</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.732543061244755</v>
+        <v>0.991592655565102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.78</v>
+        <v>0.788461538461538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.799895505523573</v>
+        <v>0.999358799465986</v>
       </c>
       <c r="G8" t="n">
-        <v>0.410714285714286</v>
+        <v>0.482142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0.142857142857143</v>
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0002883146023314</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0006288388192614999</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-14.4157301165727</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.859242683744989</v>
+        <v>0.930849175571143</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0.839285714285714</v>
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.235</v>
+        <v>0.203</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0083682614555256</v>
+        <v>-0.0025085851648351</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0258758782297507</v>
+        <v>-0.0208451932464206</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0009944838434688</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.56096232150026</v>
+        <v>-1.23575623883506</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.128268805965853</v>
+        <v>0.01889764852483</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.722222222222222</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.505</v>
+        <v>7.48</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0198146473779387</v>
+        <v>-0.0386507936507945</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0509996525944138</v>
+        <v>-0.0733373007617298</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0085811387475178</v>
+        <v>-0.0084513110146428</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.264019285515505</v>
+        <v>-0.516721840251264</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.875020193687757</v>
+        <v>0.938032097163629</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2525</v>
+        <v>0.2215</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0068915094339622</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0286538458733555</v>
+        <v>-0.0243975939572015</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0012177039363375</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.72931066691575</v>
+        <v>-2.26508818495274</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.932345811398092</v>
+        <v>0.859242683744989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0892857142857143</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.46</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.319161856661857</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.75296972117435</v>
+        <v>-0.029834515304065</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0059225294445214</v>
       </c>
       <c r="N12" t="n">
-        <v>-10.6387285553952</v>
+        <v>-2.18137840420449</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.972407224504433</v>
+        <v>0.0126146759316928</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.696428571428571</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.495</v>
+        <v>0.0345</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0298163265306122</v>
+        <v>0.0013945344387755</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0399881695102821</v>
+        <v>0.0003720553936747</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009839108223081599</v>
+        <v>0.0023942344064243</v>
       </c>
       <c r="N13" t="n">
-        <v>-6.0235003092146</v>
+        <v>4.04212880804496</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.08152178649851791</v>
+        <v>0.875020193687757</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.428571428571429</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.034</v>
+        <v>3.765</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0010010335059677</v>
+        <v>-0.130446428571428</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.5431985794337</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0020561007525696</v>
+        <v>0.01451234019811</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9442161940227</v>
+        <v>-3.46471257825839</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.754987320249101</v>
+        <v>0.016030449177156</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.964285714285714</v>
+        <v>0.635416666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>1.35</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.16895918367347</v>
+        <v>-0.0610587273641851</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.449001578550976</v>
+        <v>-0.130229862230186</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0311478885370682</v>
+        <v>-0.0148256231024226</v>
       </c>
       <c r="N15" t="n">
-        <v>-4.33228676085819</v>
+        <v>-4.52286869364334</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.000282077506361</v>
+        <v>0.956988812071216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.666666666666667</v>
+        <v>0.88695652173913</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.45</v>
+        <v>10.33</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.118587662337662</v>
+        <v>0.0324555707450446</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.183983842074301</v>
+        <v>0.0023307846734166</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0600016803672105</v>
+        <v>0.0661676485965346</v>
       </c>
       <c r="N16" t="n">
-        <v>-8.17845947156291</v>
+        <v>0.314187519313114</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.951769989473634</v>
+        <v>0.101688656650007</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.895652173913044</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.3</v>
+        <v>0.011</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0401373626373627</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0021300755708272</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0769299450549452</v>
+        <v>0.0003078381795195</v>
       </c>
       <c r="N17" t="n">
-        <v>0.389683132401579</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.10362172930668</v>
+        <v>0.883045393292249</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.155172413793103</v>
+        <v>0.698275862068966</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.011</v>
+        <v>515</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001991548527808</v>
+        <v>-7.31164695177434</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-23.6537673842147</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003339404821584</v>
+        <v>2.19333805073639</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8104986616437</v>
+        <v>-1.41973727218919</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.568295881803912</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.825688073394495</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.18348623853211</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.866238150703076</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.698275862068966</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>528</v>
+        <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>-9.66482910694598</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-29.6500603163771</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.01237164463277</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.83046005813371</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,29 +2203,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.219577280796241</v>
+        <v>0.999021807124574</v>
       </c>
       <c r="G20" t="n">
-        <v>0.824074074074074</v>
+        <v>0.387931034482759</v>
       </c>
       <c r="H20" t="n">
-        <v>0.185185185185185</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0002308786346396</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,28 +2298,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.840151631157836</v>
+        <v>0.253364356136027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.318965517241379</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H21" t="n">
-        <v>0.120689655172414</v>
+        <v>0.801724137931034</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003</v>
+        <v>0.206</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0006561754480495</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0017123051776957</v>
+        <v>0.303676343330727</v>
       </c>
       <c r="G22" t="n">
-        <v>0.155172413793103</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.775862068965517</v>
+        <v>0.530973451327434</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.206</v>
+        <v>7.47</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0019791871921182</v>
+        <v>-0.0026352813852813</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006009834253641</v>
+        <v>-0.0123225725132304</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0074448899334091</v>
+        <v>0.0063835454847539</v>
       </c>
       <c r="N22" t="n">
-        <v>0.960770481610792</v>
+        <v>-0.0352781979287996</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,11 +2451,7 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2465,46 +2461,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.537080257689961</v>
+        <v>0.284195770080567</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0431034482758621</v>
       </c>
       <c r="H23" t="n">
-        <v>0.517857142857143</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>7.48</v>
+        <v>0.231</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0008308689717925</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.008553864168618201</v>
+        <v>-0.0012320073268604</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0103728336637938</v>
+        <v>0.0023930365775589</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.359683537572528</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,7 +2538,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.001169709305872</v>
+        <v>0.985853440351083</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0431034482758621</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.793103448275862</v>
+        <v>0.577586206896552</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.229</v>
+        <v>0.486</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0044938482570061</v>
+        <v>-0.0074897470950102</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0017179551301645</v>
+        <v>-0.0147583550215073</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0082848715260941</v>
+        <v>-0.001704197512548</v>
       </c>
       <c r="N24" t="n">
-        <v>1.96237915153107</v>
+        <v>-1.54110022531075</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2643,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.802433109736104</v>
+        <v>0.785470119324119</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0789473684210526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.201754385964912</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>0.035</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-0.0001932539682539</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.199154852780807</v>
+        <v>-0.000693700071709</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0002222614726575</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-0.552154195011338</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.775678635836898</v>
+        <v>0.931524321292715</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.637931034482759</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.486</v>
+        <v>3.915</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0033447802197802</v>
+        <v>-0.0775796505652621</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0096335722015654</v>
+        <v>-0.212760082929133</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0032925817721132</v>
+        <v>0.0021063758271401</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.688226382670828</v>
+        <v>-1.98160026986621</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.500952980345395</v>
+        <v>0.072489196794955</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="H27" t="n">
-        <v>0.362068965517241</v>
+        <v>0.547445255474453</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0.035</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.025338704593143</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0005415240716083</v>
+        <v>-0.0555522824602825</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0004937521299526</v>
+        <v>0.0019752383879492</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>-1.80990747093879</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.36010610274999</v>
+        <v>0.993938057243954</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.956140350877193</v>
+        <v>0.842767295597484</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.885</v>
+        <v>10.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0157250489236791</v>
+        <v>0.0441949648711945</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.103279063815656</v>
+        <v>0.0190505688588212</v>
       </c>
       <c r="M28" t="n">
-        <v>0.112009849320588</v>
+        <v>0.06882085135181081</v>
       </c>
       <c r="N28" t="n">
-        <v>0.404763164058664</v>
+        <v>0.431170388987263</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.06253469382721601</v>
+        <v>0.677094632352519</v>
       </c>
       <c r="G29" t="n">
-        <v>0.036231884057971</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.550724637681159</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.35</v>
+        <v>0.011</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0262580877066859</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0568250109159299</v>
+        <v>-0.0001433655068843</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.94504353382858</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.886379209252019</v>
+        <v>0.976190173646178</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.846153846153846</v>
+        <v>0.708074534161491</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.29</v>
+        <v>606</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0249658236500341</v>
+        <v>-12.8763453714008</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0066823718540069</v>
+        <v>-25.6927053069771</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0541067702454022</v>
+        <v>-2.11067371773343</v>
       </c>
       <c r="N30" t="n">
-        <v>0.242622192906065</v>
+        <v>-2.12480946722785</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.942042281270654</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.790849673202614</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.215686274509804</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.78319893186518</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.142857142857143</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0001823149779449</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9982495055025</v>
+        <v>0.462072572288889</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.46583850931677</v>
       </c>
       <c r="H32" t="n">
-        <v>0.701863354037267</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>626</v>
+        <v>0.002</v>
       </c>
       <c r="K32" t="n">
-        <v>-21.5491554316476</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-36.9877276978174</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-9.629378308087491</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.44235709770729</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3371,43 +3371,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.75964569841478</v>
+        <v>0.345529245305947</v>
       </c>
       <c r="G33" t="n">
-        <v>0.789473684210526</v>
+        <v>0.15527950310559</v>
       </c>
       <c r="H33" t="n">
-        <v>0.230263157894737</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.1891</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-9.48662160844882e-05</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0006234765913049</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0830118012005689</v>
+        <v>0.180908957183452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.151315789473684</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.776315789473684</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.196</v>
+        <v>7.485</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0004167617526243</v>
+        <v>-0.0037448735475051</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.0100343406593408</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001696822311118</v>
+        <v>0.0035209242080604</v>
       </c>
       <c r="N34" t="n">
-        <v>0.212633547257333</v>
+        <v>-0.0500317107215118</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3539,11 +3539,7 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.3549873010428</v>
+        <v>0.638088141860279</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.031055900621118</v>
       </c>
       <c r="H35" t="n">
-        <v>0.490322580645161</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>7.49</v>
+        <v>0.2047</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.001836167594496</v>
+        <v>-0.000105948849298</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.008750620654469</v>
+        <v>-0.0018694215985183</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0050720954469118</v>
+        <v>0.001661737943585</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0245149211548205</v>
+        <v>-0.0517581090854907</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.459820218624906</v>
+        <v>0.985580177798845</v>
       </c>
       <c r="G36" t="n">
-        <v>0.031055900621118</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.807453416149068</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.201</v>
+        <v>0.48</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005361022366787</v>
+        <v>-0.0048230154860225</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0016206371680468</v>
+        <v>-0.0098694008617159</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0023418440617065</v>
+        <v>-0.0010184047428492</v>
       </c>
       <c r="N36" t="n">
-        <v>0.266717530685963</v>
+        <v>-1.00479489292136</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.973383341239075</v>
+        <v>0.159186020688808</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.583850931677019</v>
+        <v>0.322981366459627</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.48</v>
+        <v>0.035</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0039932645142397</v>
+        <v>0.0002125174044494</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.00759242172822</v>
+        <v>-0.0001156030135168</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0005146918702245001</v>
+        <v>0.0005550911854103</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.831930107133271</v>
+        <v>0.607192584141274</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3822,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.038688775268406</v>
+        <v>0.86968624663636</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.322981366459627</v>
+        <v>0.9371069182389939</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.034</v>
+        <v>3.83</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0003283146730593</v>
+        <v>-0.0400659438426342</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.104653135523413</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0006481998851849</v>
+        <v>0.0103311499426686</v>
       </c>
       <c r="N38" t="n">
-        <v>0.965631391351165</v>
+        <v>-1.04610819432465</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.486403425761931</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.930817610062893</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.86</v>
+        <v>0.312</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0013683191808191</v>
+        <v>-0.0225890304161484</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0739277491320024</v>
+        <v>-0.081239456666161</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0420719609338847</v>
+        <v>0.0266389556957644</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0354486834409107</v>
+        <v>-7.24007385132961</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3990,7 @@
           <t>West_9b</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +4000,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4015,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.312</v>
+        <v>94.17</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0131504102316602</v>
+        <v>-0.449676313357169</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.081239456666161</v>
+        <v>-6.15357635898746</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0647152109991635</v>
+        <v>3.96512047587078</v>
       </c>
       <c r="N40" t="n">
-        <v>4.21487507425007</v>
+        <v>-0.477515464964605</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4091,7 +4087,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4118,19 +4114,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>94.78</v>
+        <v>4.51</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.575797653205214</v>
+        <v>-0.0825782593303728</v>
       </c>
       <c r="L41" t="n">
-        <v>-6.15357635898746</v>
+        <v>-0.360855653520277</v>
       </c>
       <c r="M41" t="n">
-        <v>3.72150272535638</v>
+        <v>0.09046433390895089</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.607509657317171</v>
+        <v>-1.83100353282423</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4178,11 +4174,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,7 +4189,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.889664319040077</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4205,19 +4201,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.51</v>
+        <v>0.3195</v>
       </c>
       <c r="K42" t="n">
-        <v>0.25507720238567</v>
+        <v>-0.0036745472837022</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.149075471124501</v>
+        <v>-0.0153553170266181</v>
       </c>
       <c r="M42" t="n">
-        <v>1.20832403996164</v>
+        <v>0.0092360123613989</v>
       </c>
       <c r="N42" t="n">
-        <v>5.65581380012573</v>
+        <v>-1.15009304654216</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4226,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4261,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,31 +4276,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.185546684761349</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3405</v>
+        <v>94.89</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0062244376278118</v>
+        <v>-0.29707</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0228354152856572</v>
+        <v>-1.08581521587183</v>
       </c>
       <c r="M43" t="n">
-        <v>0.008340702099997901</v>
+        <v>0.304587979442656</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.82802867189776</v>
+        <v>-0.313067762672568</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4352,7 +4348,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4367,31 +4363,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.088983712984032</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.5</v>
+        <v>4.445</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.819405496354459</v>
+        <v>0.0040247933884297</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.92401218058914</v>
+        <v>-0.20714891751075</v>
       </c>
       <c r="M44" t="n">
-        <v>0.156932458089537</v>
+        <v>0.0961550400706449</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.858016226549172</v>
+        <v>0.0905465329230541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4396,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4430,93 +4426,6 @@
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Manakau at S.H.1 Bridge</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.429013828493761</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.5905</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-0.0578594175285793</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-0.261299253102405</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.0918651483169166</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-1.26041645852476</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1786783</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5489486</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Waikawa</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>West_9b</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
+++ b/trend_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -139,55 +139,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,13 +666,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.9116437807729419</v>
+        <v>0.798745843436979</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.833333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -684,16 +681,16 @@
         <v>10.75</v>
       </c>
       <c r="K2">
-        <v>-1.22332535885167</v>
+        <v>-0.951171875</v>
       </c>
       <c r="L2">
-        <v>-3.06656339624488</v>
+        <v>-3.26615668875567</v>
       </c>
       <c r="M2">
-        <v>0.267976857782746</v>
+        <v>0.95448606271777</v>
       </c>
       <c r="N2">
-        <v>-11.3797707800156</v>
+        <v>-8.84811046511628</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -708,19 +705,19 @@
         <v>5489486</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
         <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -740,37 +737,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.966240057036501</v>
+        <v>0.821636547336098</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.795918367346939</v>
+        <v>0.829268292682927</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K3">
-        <v>0.111104267869535</v>
+        <v>0.0578663598047915</v>
       </c>
       <c r="L3">
-        <v>0.0070311819581586</v>
+        <v>-0.0455912577179214</v>
       </c>
       <c r="M3">
-        <v>0.176340056506813</v>
+        <v>0.160024291320737</v>
       </c>
       <c r="N3">
-        <v>8.81779903726469</v>
+        <v>4.55640628384185</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1786783</v>
@@ -779,19 +776,19 @@
         <v>5489486</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,37 +808,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.407940822856469</v>
+        <v>0.7777805887479819</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.945454545454545</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.63</v>
+        <v>10.675</v>
       </c>
       <c r="K4">
-        <v>-0.0116641221040107</v>
+        <v>0.0468269230769233</v>
       </c>
       <c r="L4">
-        <v>-0.0504917629132768</v>
+        <v>-0.0250558183324308</v>
       </c>
       <c r="M4">
-        <v>0.08225636626673211</v>
+        <v>0.130155098385626</v>
       </c>
       <c r="N4">
-        <v>-0.109728335879687</v>
+        <v>0.438659700954785</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1786783</v>
@@ -850,19 +847,19 @@
         <v>5489486</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -882,13 +879,13 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0432128945097032</v>
+        <v>0.0138111028903981</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.285714285714286</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -897,22 +894,22 @@
         <v>0.011</v>
       </c>
       <c r="K5">
-        <v>0.0005478102979963</v>
+        <v>0.0006543346287331</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0010825815869966</v>
+        <v>0.0011330894547054</v>
       </c>
       <c r="N5">
-        <v>4.98009361814818</v>
+        <v>5.94849662484697</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1786783</v>
@@ -921,19 +918,19 @@
         <v>5489486</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -950,40 +947,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.438865520750858</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.767857142857143</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>460</v>
+        <v>648</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.134654377880177</v>
       </c>
       <c r="L6">
-        <v>-25.5863535218387</v>
+        <v>-80.40617653230299</v>
       </c>
       <c r="M6">
-        <v>30.4761087112315</v>
+        <v>41.5619685295504</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.020779996586447</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1786783</v>
@@ -992,19 +989,19 @@
         <v>5489486</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,16 +1018,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.991592655565102</v>
+        <v>0.546622316420022</v>
       </c>
       <c r="G7">
-        <v>0.788461538461538</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="H7">
-        <v>0.230769230769231</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1054,7 +1051,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1786783</v>
@@ -1063,19 +1060,19 @@
         <v>5489486</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,40 +1089,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.999358799465986</v>
+        <v>0.996311343173898</v>
       </c>
       <c r="G8">
-        <v>0.482142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H8">
-        <v>0.142857142857143</v>
+        <v>0.125</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
-        <v>-0.0002883146023314</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0006288388192614999</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-14.4157301165727</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1786783</v>
@@ -1134,19 +1131,19 @@
         <v>5489486</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,40 +1160,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.930849175571143</v>
+        <v>0.996536241011387</v>
       </c>
       <c r="G9">
-        <v>0.107142857142857</v>
+        <v>0.125</v>
       </c>
       <c r="H9">
-        <v>0.839285714285714</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.203</v>
+        <v>0.1365</v>
       </c>
       <c r="K9">
-        <v>-0.0025085851648351</v>
+        <v>-0.0247427419354839</v>
       </c>
       <c r="L9">
-        <v>-0.0208451932464206</v>
+        <v>-0.0355612863241068</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.0093124558492343</v>
       </c>
       <c r="N9">
-        <v>-1.23575623883506</v>
+        <v>-18.1265508684863</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1786783</v>
@@ -1205,19 +1202,19 @@
         <v>5489486</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,40 +1231,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>0.01889764852483</v>
+        <v>0.51973890389296</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.781818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.48</v>
+        <v>7.495</v>
       </c>
       <c r="K10">
-        <v>-0.0386507936507945</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.0733373007617298</v>
+        <v>-0.0340571477122452</v>
       </c>
       <c r="M10">
-        <v>-0.0084513110146428</v>
+        <v>0.0337327392402828</v>
       </c>
       <c r="N10">
-        <v>-0.516721840251264</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1786783</v>
@@ -1276,16 +1273,16 @@
         <v>5489486</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,7 +1302,7 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.938032097163629</v>
+        <v>0.99934051569371</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1317,25 +1314,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2215</v>
+        <v>0.1525</v>
       </c>
       <c r="K11">
-        <v>-0.0050171703296703</v>
+        <v>-0.0255907643312102</v>
       </c>
       <c r="L11">
-        <v>-0.0243975939572015</v>
+        <v>-0.0359947957129349</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.009085497737320199</v>
       </c>
       <c r="N11">
-        <v>-2.26508818495274</v>
+        <v>-16.780829069646</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1786783</v>
@@ -1344,19 +1341,19 @@
         <v>5489486</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.859242683744989</v>
+        <v>0.875020193687757</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.696428571428571</v>
+        <v>0.660714285714286</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="K12">
-        <v>-0.0100343406593407</v>
+        <v>-0.0235645161290323</v>
       </c>
       <c r="L12">
-        <v>-0.029834515304065</v>
+        <v>-0.0326294338911265</v>
       </c>
       <c r="M12">
-        <v>0.0059225294445214</v>
+        <v>0.0049792812992018</v>
       </c>
       <c r="N12">
-        <v>-2.18137840420449</v>
+        <v>-5.74744295830055</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1786783</v>
@@ -1415,19 +1412,19 @@
         <v>5489486</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,37 +1444,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0126146759316928</v>
+        <v>0.08926998273080849</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.428571428571429</v>
+        <v>0.446428571428571</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0345</v>
+        <v>0.035</v>
       </c>
       <c r="K13">
-        <v>0.0013945344387755</v>
+        <v>0.0010235027472527</v>
       </c>
       <c r="L13">
-        <v>0.0003720553936747</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0023942344064243</v>
+        <v>0.0022686335403726</v>
       </c>
       <c r="N13">
-        <v>4.04212880804496</v>
+        <v>2.92429356357928</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1786783</v>
@@ -1486,19 +1483,19 @@
         <v>5489486</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.875020193687757</v>
+        <v>0.986932452943066</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1530,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.765</v>
+        <v>3.545</v>
       </c>
       <c r="K14">
-        <v>-0.130446428571428</v>
+        <v>-0.266008403361345</v>
       </c>
       <c r="L14">
-        <v>-0.5431985794337</v>
+        <v>-0.414463621562252</v>
       </c>
       <c r="M14">
-        <v>0.01451234019811</v>
+        <v>-0.06800138484599989</v>
       </c>
       <c r="N14">
-        <v>-3.46471257825839</v>
+        <v>-7.50376314136374</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
@@ -1557,19 +1554,19 @@
         <v>5489486</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1589,37 +1586,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.016030449177156</v>
+        <v>0.792988026987263</v>
       </c>
       <c r="G15">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.635416666666667</v>
+        <v>0.747368421052632</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.35</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>-0.0610587273641851</v>
+        <v>-0.409779356768886</v>
       </c>
       <c r="L15">
-        <v>-0.130229862230186</v>
+        <v>-1.40910551912648</v>
       </c>
       <c r="M15">
-        <v>-0.0148256231024226</v>
+        <v>0.369201191185922</v>
       </c>
       <c r="N15">
-        <v>-4.52286869364334</v>
+        <v>-3.1521488982222</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1786783</v>
@@ -1628,19 +1625,19 @@
         <v>5489486</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
         <v>61</v>
-      </c>
-      <c r="W15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,43 +1645,43 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.956988812071216</v>
+        <v>0.119044178189009</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.88695652173913</v>
+        <v>0.626373626373626</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.33</v>
+        <v>1.26</v>
       </c>
       <c r="K16">
-        <v>0.0324555707450446</v>
+        <v>-0.0306932773109244</v>
       </c>
       <c r="L16">
-        <v>0.0023307846734166</v>
+        <v>-0.0750144441027894</v>
       </c>
       <c r="M16">
-        <v>0.0661676485965346</v>
+        <v>0.013267489568041</v>
       </c>
       <c r="N16">
-        <v>0.314187519313114</v>
+        <v>-2.4359743897559</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
@@ -1699,19 +1696,19 @@
         <v>5489486</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,43 +1716,43 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.101688656650007</v>
+        <v>0.936426029685179</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.163793103448276</v>
+        <v>0.88695652173913</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.011</v>
+        <v>10.46</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.0321952887537995</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.0050171703296702</v>
       </c>
       <c r="M17">
-        <v>0.0003078381795195</v>
+        <v>0.0631460418562332</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.307794347550664</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
@@ -1770,19 +1767,19 @@
         <v>5489486</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,49 +1787,49 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.883045393292249</v>
+        <v>0.149939975818675</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.698275862068966</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>515</v>
+        <v>0.011</v>
       </c>
       <c r="K18">
-        <v>-7.31164695177434</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>-23.6537673842147</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2.19333805073639</v>
+        <v>0.0002646740109809</v>
       </c>
       <c r="N18">
-        <v>-1.41973727218919</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1786783</v>
@@ -1841,19 +1838,19 @@
         <v>5489486</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,49 +1858,49 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.568295881803912</v>
+        <v>0.820989543135397</v>
       </c>
       <c r="G19">
-        <v>0.825688073394495</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.18348623853211</v>
+        <v>0.7155172413793101</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>525</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-6.89056732740944</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-23.9728635102028</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.76465672400372</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-1.31248901474465</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1786783</v>
@@ -1912,16 +1909,16 @@
         <v>5489486</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
         <v>65</v>
@@ -1932,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1941,28 +1938,28 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.999021807124574</v>
+        <v>0.303847063644584</v>
       </c>
       <c r="G20">
-        <v>0.387931034482759</v>
+        <v>0.807339449541284</v>
       </c>
       <c r="H20">
-        <v>0.120689655172414</v>
+        <v>0.201834862385321</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.0002308786346396</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1974,7 +1971,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1786783</v>
@@ -1983,19 +1980,19 @@
         <v>5489486</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,40 +2000,40 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.253364356136027</v>
+        <v>0.999883969676396</v>
       </c>
       <c r="G21">
-        <v>0.137931034482759</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="H21">
-        <v>0.801724137931034</v>
+        <v>0.09482758620689651</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.206</v>
+        <v>0.002</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0006561754480495</v>
+        <v>-0.0002308786346396</v>
       </c>
       <c r="M21">
-        <v>0.0012482911825017</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2045,7 +2042,7 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1786783</v>
@@ -2054,19 +2051,19 @@
         <v>5489486</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,49 +2071,49 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.303676343330727</v>
+        <v>0.970597127107133</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H22">
-        <v>0.530973451327434</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>7.47</v>
+        <v>0.19255</v>
       </c>
       <c r="K22">
-        <v>-0.0026352813852813</v>
+        <v>-0.0027462406015037</v>
       </c>
       <c r="L22">
-        <v>-0.0123225725132304</v>
+        <v>-0.0109962489502013</v>
       </c>
       <c r="M22">
-        <v>0.0063835454847539</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>-0.0352781979287996</v>
+        <v>-1.42624804025124</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1786783</v>
@@ -2125,16 +2122,19 @@
         <v>5489486</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,49 +2142,49 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
       </c>
       <c r="F23">
-        <v>0.284195770080567</v>
+        <v>0.483170859333008</v>
       </c>
       <c r="G23">
-        <v>0.0431034482758621</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.844827586206897</v>
+        <v>0.539823008849557</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.231</v>
+        <v>7.48</v>
       </c>
       <c r="K23">
-        <v>0.0008308689717925</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0012320073268604</v>
+        <v>-0.0111018237082065</v>
       </c>
       <c r="M23">
-        <v>0.0023930365775589</v>
+        <v>0.0117343308747898</v>
       </c>
       <c r="N23">
-        <v>0.359683537572528</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1786783</v>
@@ -2193,19 +2193,16 @@
         <v>5489486</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
-      </c>
-      <c r="W23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,7 +2210,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -2225,37 +2222,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.985853440351083</v>
+        <v>0.969456294633569</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0431034482758621</v>
       </c>
       <c r="H24">
-        <v>0.577586206896552</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0.486</v>
+        <v>0.21185</v>
       </c>
       <c r="K24">
-        <v>-0.0074897470950102</v>
+        <v>-0.0036225887170154</v>
       </c>
       <c r="L24">
-        <v>-0.0147583550215073</v>
+        <v>-0.0119278979408351</v>
       </c>
       <c r="M24">
-        <v>-0.001704197512548</v>
+        <v>-7.39884372713228E-06</v>
       </c>
       <c r="N24">
-        <v>-1.54110022531075</v>
+        <v>-1.7099781529457</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1786783</v>
@@ -2264,19 +2261,19 @@
         <v>5489486</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,49 +2281,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.785470119324119</v>
+        <v>0.994514782263439</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.327586206896552</v>
+        <v>0.525862068965517</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.035</v>
+        <v>0.48</v>
       </c>
       <c r="K25">
-        <v>-0.0001932539682539</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L25">
-        <v>-0.000693700071709</v>
+        <v>-0.0199726589200273</v>
       </c>
       <c r="M25">
-        <v>0.0002222614726575</v>
+        <v>-0.0039836413787207</v>
       </c>
       <c r="N25">
-        <v>-0.552154195011338</v>
+        <v>-2.09048763736264</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1786783</v>
@@ -2335,19 +2332,19 @@
         <v>5489486</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,49 +2352,49 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.931524321292715</v>
+        <v>0.345821103400482</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.956140350877193</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3.915</v>
+        <v>0.035</v>
       </c>
       <c r="K26">
-        <v>-0.0775796505652621</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.212760082929133</v>
+        <v>-0.0003033637873754</v>
       </c>
       <c r="M26">
-        <v>0.0021063758271401</v>
+        <v>0.0005193702612106</v>
       </c>
       <c r="N26">
-        <v>-1.98160026986621</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1786783</v>
@@ -2406,19 +2403,19 @@
         <v>5489486</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,49 +2423,49 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.072489196794955</v>
+        <v>0.986213862004614</v>
       </c>
       <c r="G27">
-        <v>0.0291970802919708</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.547445255474453</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1.4</v>
+        <v>3.86</v>
       </c>
       <c r="K27">
-        <v>-0.025338704593143</v>
+        <v>-0.110377747252747</v>
       </c>
       <c r="L27">
-        <v>-0.0555522824602825</v>
+        <v>-0.246052188024245</v>
       </c>
       <c r="M27">
-        <v>0.0019752383879492</v>
+        <v>-0.0322455064770799</v>
       </c>
       <c r="N27">
-        <v>-1.80990747093879</v>
+        <v>-2.85952713090019</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1786783</v>
@@ -2477,19 +2474,19 @@
         <v>5489486</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,49 +2494,49 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.993938057243954</v>
+        <v>0.039453948327616</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="H28">
-        <v>0.842767295597484</v>
+        <v>0.55</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>10.25</v>
+        <v>1.35</v>
       </c>
       <c r="K28">
-        <v>0.0441949648711945</v>
+        <v>-0.0300034230944774</v>
       </c>
       <c r="L28">
-        <v>0.0190505688588212</v>
+        <v>-0.059193069645325</v>
       </c>
       <c r="M28">
-        <v>0.06882085135181081</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0.431170388987263</v>
+        <v>-2.2224757847761</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1786783</v>
@@ -2548,19 +2545,19 @@
         <v>5489486</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,7 +2565,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -2577,40 +2574,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.677094632352519</v>
+        <v>0.999542603003822</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.142857142857143</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.011</v>
+        <v>10.27</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.0496227998249351</v>
       </c>
       <c r="L29">
-        <v>-0.0001433655068843</v>
+        <v>0.0277599800874549</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.0722144093850369</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.483182082034421</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1786783</v>
@@ -2619,19 +2616,19 @@
         <v>5489486</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -2648,40 +2645,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>0.976190173646178</v>
+        <v>0.740367270757075</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.708074534161491</v>
+        <v>0.132947976878613</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>606</v>
+        <v>0.011</v>
       </c>
       <c r="K30">
-        <v>-12.8763453714008</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-25.6927053069771</v>
+        <v>-0.0001251575676662</v>
       </c>
       <c r="M30">
-        <v>-2.11067371773343</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-2.12480946722785</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1786783</v>
@@ -2690,19 +2687,19 @@
         <v>5489486</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,49 +2707,49 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.942042281270654</v>
+        <v>0.922268507936821</v>
       </c>
       <c r="G31">
-        <v>0.790849673202614</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.215686274509804</v>
+        <v>0.734104046242775</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.005</v>
+        <v>626</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-8.900395979287239</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-20.5160044614103</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.128154676038038</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-1.42178849509381</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="Q31">
         <v>1786783</v>
@@ -2761,16 +2758,16 @@
         <v>5489486</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
         <v>65</v>
@@ -2781,31 +2778,31 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>0.844580248847878</v>
+      </c>
+      <c r="G32">
+        <v>0.781818181818182</v>
+      </c>
+      <c r="H32">
+        <v>0.224242424242424</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32">
-        <v>0.462072572288889</v>
-      </c>
-      <c r="G32">
-        <v>0.46583850931677</v>
-      </c>
-      <c r="H32">
-        <v>0.0869565217391304</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
       <c r="J32">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2823,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1786783</v>
@@ -2832,19 +2829,19 @@
         <v>5489486</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -2861,31 +2858,31 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.345529245305947</v>
+        <v>0.760173734130183</v>
       </c>
       <c r="G33">
-        <v>0.15527950310559</v>
+        <v>0.479768786127168</v>
       </c>
       <c r="H33">
-        <v>0.7826086956521739</v>
+        <v>0.08092485549132949</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0.1891</v>
+        <v>0.002</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-9.48662160844882E-05</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.0006234765913049</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2894,7 +2891,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1786783</v>
@@ -2903,19 +2900,19 @@
         <v>5489486</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,7 +2920,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -2932,40 +2929,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.180908957183452</v>
+        <v>0.781013650310752</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.15606936416185</v>
       </c>
       <c r="H34">
-        <v>0.480769230769231</v>
+        <v>0.76878612716763</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>7.485</v>
+        <v>0.177</v>
       </c>
       <c r="K34">
-        <v>-0.0037448735475051</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.0100343406593408</v>
+        <v>-0.0014237142350928</v>
       </c>
       <c r="M34">
-        <v>0.0035209242080604</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-0.0500317107215118</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1786783</v>
@@ -2974,16 +2971,19 @@
         <v>5489486</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,7 +2991,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -3000,40 +3000,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F35">
-        <v>0.638088141860279</v>
+        <v>0.41891107417887</v>
       </c>
       <c r="G35">
-        <v>0.031055900621118</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.84472049689441</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2047</v>
+        <v>7.49</v>
       </c>
       <c r="K35">
-        <v>-0.000105948849298</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0018694215985183</v>
+        <v>-0.0066358216672779</v>
       </c>
       <c r="M35">
-        <v>0.001661737943585</v>
+        <v>0.0067074459252448</v>
       </c>
       <c r="N35">
-        <v>-0.0517581090854907</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1786783</v>
@@ -3042,19 +3042,16 @@
         <v>5489486</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
-      </c>
-      <c r="W35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,7 +3059,7 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -3074,37 +3071,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.985580177798845</v>
+        <v>0.927033062086399</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.0289017341040462</v>
       </c>
       <c r="H36">
-        <v>0.571428571428571</v>
+        <v>0.84393063583815</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0.48</v>
+        <v>0.193</v>
       </c>
       <c r="K36">
-        <v>-0.0048230154860225</v>
+        <v>-0.0011995073891625</v>
       </c>
       <c r="L36">
-        <v>-0.0098694008617159</v>
+        <v>-0.0035300546415803</v>
       </c>
       <c r="M36">
-        <v>-0.0010184047428492</v>
+        <v>0.0003216410445422</v>
       </c>
       <c r="N36">
-        <v>-1.00479489292136</v>
+        <v>-0.621506419255213</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q36">
         <v>1786783</v>
@@ -3113,19 +3110,19 @@
         <v>5489486</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,49 +3130,49 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.159186020688808</v>
+        <v>0.996785743811056</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.322981366459627</v>
+        <v>0.560693641618497</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.035</v>
+        <v>0.4705</v>
       </c>
       <c r="K37">
-        <v>0.0002125174044494</v>
+        <v>-0.0051678457325422</v>
       </c>
       <c r="L37">
-        <v>-0.0001156030135168</v>
+        <v>-0.009998763995269199</v>
       </c>
       <c r="M37">
-        <v>0.0005550911854103</v>
+        <v>-0.0018555985577179</v>
       </c>
       <c r="N37">
-        <v>0.607192584141274</v>
+        <v>-1.09837316313331</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1786783</v>
@@ -3184,19 +3181,19 @@
         <v>5489486</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3204,49 +3201,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.86968624663636</v>
+        <v>0.125142860400997</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.9371069182389939</v>
+        <v>0.300578034682081</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3.83</v>
+        <v>0.035</v>
       </c>
       <c r="K38">
-        <v>-0.0400659438426342</v>
+        <v>0.0002174107142857</v>
       </c>
       <c r="L38">
-        <v>-0.104653135523413</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0.0103311499426686</v>
+        <v>0.0005132038248228</v>
       </c>
       <c r="N38">
-        <v>-1.04610819432465</v>
+        <v>0.621173469387756</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q38">
         <v>1786783</v>
@@ -3255,19 +3252,19 @@
         <v>5489486</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,49 +3272,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.231216363225238</v>
+        <v>0.970352146152089</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.941520467836257</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.312</v>
+        <v>3.76</v>
       </c>
       <c r="K39">
-        <v>-0.0225890304161484</v>
+        <v>-0.0602060439560438</v>
       </c>
       <c r="L39">
-        <v>-0.081239456666161</v>
+        <v>-0.110866477003544</v>
       </c>
       <c r="M39">
-        <v>0.0266389556957644</v>
+        <v>-0.0054066830323771</v>
       </c>
       <c r="N39">
-        <v>-7.24007385132961</v>
+        <v>-1.60122457329904</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1786783</v>
@@ -3326,16 +3323,19 @@
         <v>5489486</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3343,7 +3343,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -3355,7 +3355,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.40324797025367</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3367,25 +3367,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>94.17</v>
+        <v>0.302</v>
       </c>
       <c r="K40">
-        <v>-0.449676313357169</v>
+        <v>-0.028965214289502</v>
       </c>
       <c r="L40">
-        <v>-6.15357635898746</v>
+        <v>-0.081239456666161</v>
       </c>
       <c r="M40">
-        <v>3.96512047587078</v>
+        <v>0.0024300265073974</v>
       </c>
       <c r="N40">
-        <v>-0.477515464964605</v>
+        <v>-9.59113055943773</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1786783</v>
@@ -3394,16 +3394,16 @@
         <v>5489486</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,7 +3411,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3423,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.40324797025367</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3435,25 +3435,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>4.51</v>
+        <v>94.17</v>
       </c>
       <c r="K41">
-        <v>-0.0825782593303728</v>
+        <v>0.71563431013431</v>
       </c>
       <c r="L41">
-        <v>-0.360855653520277</v>
+        <v>-6.15357635898746</v>
       </c>
       <c r="M41">
-        <v>0.09046433390895089</v>
+        <v>2.58289788680845</v>
       </c>
       <c r="N41">
-        <v>-1.83100353282423</v>
+        <v>0.759938738594361</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q41">
         <v>1786783</v>
@@ -3462,16 +3462,16 @@
         <v>5489486</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,10 +3479,10 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.360257393568128</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.3195</v>
+        <v>4.51</v>
       </c>
       <c r="K42">
-        <v>-0.0036745472837022</v>
+        <v>-0.224261591766641</v>
       </c>
       <c r="L42">
-        <v>-0.0153553170266181</v>
+        <v>-0.360855653520277</v>
       </c>
       <c r="M42">
-        <v>0.0092360123613989</v>
+        <v>-0.116494698651329</v>
       </c>
       <c r="N42">
-        <v>-1.15009304654216</v>
+        <v>-4.97254083739781</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q42">
         <v>1786783</v>
@@ -3530,16 +3530,16 @@
         <v>5489486</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,7 +3547,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -3559,37 +3559,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.20948086257967</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>94.89</v>
+        <v>0.307</v>
       </c>
       <c r="K43">
-        <v>-0.29707</v>
+        <v>-0.0028111599780099</v>
       </c>
       <c r="L43">
-        <v>-1.08581521587183</v>
+        <v>-0.0173045422162874</v>
       </c>
       <c r="M43">
-        <v>0.304587979442656</v>
+        <v>0.009123408924928101</v>
       </c>
       <c r="N43">
-        <v>-0.313067762672568</v>
+        <v>-0.915687289254039</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1786783</v>
@@ -3598,16 +3598,16 @@
         <v>5489486</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3627,55 +3627,123 @@
         <v>40</v>
       </c>
       <c r="F44">
+        <v>0.294253177635855</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>94.78</v>
+      </c>
+      <c r="K44">
+        <v>-0.212146606018194</v>
+      </c>
+      <c r="L44">
+        <v>-1.02677716874341</v>
+      </c>
+      <c r="M44">
+        <v>0.4035828161005</v>
+      </c>
+      <c r="N44">
+        <v>-0.223830561319048</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44">
+        <v>1786783</v>
+      </c>
+      <c r="R44">
+        <v>5489486</v>
+      </c>
+      <c r="S44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45">
         <v>0.5</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>4.445</v>
-      </c>
-      <c r="K44">
-        <v>0.0040247933884297</v>
-      </c>
-      <c r="L44">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4.295</v>
+      </c>
+      <c r="K45">
+        <v>-0.0137641315519014</v>
+      </c>
+      <c r="L45">
         <v>-0.20714891751075</v>
       </c>
-      <c r="M44">
+      <c r="M45">
         <v>0.0961550400706449</v>
       </c>
-      <c r="N44">
-        <v>0.0905465329230541</v>
-      </c>
-      <c r="O44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q44">
-        <v>1786783</v>
-      </c>
-      <c r="R44">
-        <v>5489486</v>
-      </c>
-      <c r="S44" t="s">
-        <v>58</v>
-      </c>
-      <c r="T44" t="s">
-        <v>59</v>
-      </c>
-      <c r="U44" t="s">
-        <v>60</v>
-      </c>
-      <c r="V44" t="s">
-        <v>61</v>
+      <c r="N45">
+        <v>-0.320468720649625</v>
+      </c>
+      <c r="O45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45">
+        <v>1786783</v>
+      </c>
+      <c r="R45">
+        <v>5489486</v>
+      </c>
+      <c r="S45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
